--- a/Mussel_heartrate_daughterboard/Mussel_heartrate_daughterboard_parts.xlsx
+++ b/Mussel_heartrate_daughterboard/Mussel_heartrate_daughterboard_parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Hardware_projects\MusselHeartRate\Mussel_heartrate_daughterboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62FAF05-2EA5-476D-9F30-949B22B9FCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06913539-EC89-4AC4-A1B0-F13236C53B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17620" yWindow="180" windowWidth="20260" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="970" windowWidth="18200" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevAB_parts" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="HeartRate_Daughterboard_RevA_bom" localSheetId="1">RevA_BOM!$A$2:$G$48</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Mussel_heartrate_daughterboard/Mussel_heartrate_daughterboard_parts.xlsx
+++ b/Mussel_heartrate_daughterboard/Mussel_heartrate_daughterboard_parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Hardware_projects\MusselHeartRate\Mussel_heartrate_daughterboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06913539-EC89-4AC4-A1B0-F13236C53B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A44B1-1EE0-4623-AECD-5007437DA0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="970" windowWidth="18200" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2870" yWindow="1400" windowWidth="30060" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevAB_parts" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,21 @@
   <definedNames>
     <definedName name="HeartRate_Daughterboard_RevA_bom" localSheetId="1">RevA_BOM!$A$2:$G$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -82,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="204">
   <si>
     <t>Digikey.com materials</t>
   </si>
@@ -673,6 +684,27 @@
   </si>
   <si>
     <t>Heart rate sensor modules</t>
+  </si>
+  <si>
+    <t>MMBT6429LT1G</t>
+  </si>
+  <si>
+    <t>MMBT6429LT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>Alt. Mfr PN</t>
+  </si>
+  <si>
+    <t>Alt. Digikey PN</t>
+  </si>
+  <si>
+    <t>Digikey $</t>
+  </si>
+  <si>
+    <t>SSM3J328R,LF</t>
+  </si>
+  <si>
+    <t>SSM3J328RLFCT-ND</t>
   </si>
 </sst>
 </file>
@@ -769,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -805,37 +837,11 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1152,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,10 +1169,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K14" sqref="K14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1177,12 +1183,12 @@
     <col min="5" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,8 +1216,17 @@
       <c r="J2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
@@ -1238,12 +1253,12 @@
       <c r="I3">
         <v>26.25</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="18">
         <f>I3*H3</f>
         <v>183.75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>65</v>
       </c>
@@ -1270,12 +1285,12 @@
       <c r="I4">
         <v>1.49</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="18">
         <f t="shared" ref="J4:J29" si="1">I4*H4</f>
         <v>10.43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1302,12 +1317,12 @@
       <c r="I5">
         <v>0.52</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="18">
         <f t="shared" si="1"/>
         <v>3.64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -1334,12 +1349,12 @@
       <c r="I6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="18">
         <f t="shared" si="1"/>
         <v>7.9099999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1366,28 +1381,28 @@
       <c r="I7">
         <v>0.44</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="18">
         <f t="shared" si="1"/>
         <v>3.08</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>1.19</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="9">
         <f t="shared" si="2"/>
         <v>1.19</v>
       </c>
@@ -1398,28 +1413,28 @@
       <c r="I8">
         <v>1.19</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="18">
         <f t="shared" si="1"/>
         <v>8.33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>0.1</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="9">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
@@ -1429,28 +1444,28 @@
       <c r="I9">
         <v>0.09</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>0.1</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="9">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
@@ -1460,28 +1475,28 @@
       <c r="I10">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="18">
         <f t="shared" si="1"/>
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>0.43</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="9">
         <f t="shared" si="2"/>
         <v>0.43</v>
       </c>
@@ -1491,28 +1506,28 @@
       <c r="I11">
         <v>0.29899999999999999</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="18">
         <f t="shared" si="1"/>
         <v>7.4749999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="9">
         <v>0.46</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="9">
         <f t="shared" si="2"/>
         <v>0.92</v>
       </c>
@@ -1523,28 +1538,28 @@
       <c r="I12">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="18">
         <f t="shared" si="1"/>
         <v>3.3319999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>0.5</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="9">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -1555,28 +1570,37 @@
       <c r="I13">
         <v>0.49</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="18">
         <f t="shared" si="1"/>
         <v>3.4299999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="K13" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>0.38</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="9">
         <f t="shared" si="2"/>
         <v>0.38</v>
       </c>
@@ -1586,28 +1610,37 @@
       <c r="I14">
         <v>0.33600000000000002</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="18">
         <f t="shared" si="1"/>
         <v>3.3600000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="K14" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="17">
         <v>22112042</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="7">
         <v>9</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>0.54700000000000004</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="9">
         <f t="shared" si="2"/>
         <v>4.923</v>
       </c>
@@ -1618,28 +1651,28 @@
       <c r="I15">
         <v>0.54700000000000004</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="18">
         <f t="shared" si="1"/>
         <v>34.461000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="17">
         <v>10112043</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="7">
         <v>9</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>0.184</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="9">
         <f t="shared" si="2"/>
         <v>1.6559999999999999</v>
       </c>
@@ -1650,28 +1683,28 @@
       <c r="I16">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="18">
         <f t="shared" si="1"/>
         <v>8.6562000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="17">
         <v>469990101</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="7">
         <v>40</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>0.1928</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="9">
         <f t="shared" si="2"/>
         <v>7.7119999999999997</v>
       </c>
@@ -1681,28 +1714,28 @@
       <c r="I17">
         <v>0.13868</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="18">
         <f t="shared" si="1"/>
         <v>41.603999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="15">
         <v>0.1</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="9">
         <f>D18*E18</f>
         <v>0.2</v>
       </c>
@@ -1712,28 +1745,28 @@
       <c r="I18">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="18">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="15">
         <v>0.1</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="9">
         <f>D19*E19</f>
         <v>0.1</v>
       </c>
@@ -1743,28 +1776,28 @@
       <c r="I19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="18">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="7">
         <v>7</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>0.1</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
@@ -1774,28 +1807,28 @@
       <c r="I20">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="18">
         <f t="shared" si="1"/>
         <v>1.81</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="9">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
@@ -1805,28 +1838,28 @@
       <c r="I21">
         <v>0.127</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="18">
         <f t="shared" si="1"/>
         <v>1.27</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="7">
         <v>6</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="15">
         <v>0.1</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="9">
         <f>D22*E22</f>
         <v>0.60000000000000009</v>
       </c>
@@ -1836,28 +1869,28 @@
       <c r="I22">
         <v>1.72E-2</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="18">
         <f t="shared" si="1"/>
         <v>1.72</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="15">
         <v>0.11</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="9">
         <f>D23*E23</f>
         <v>0.11</v>
       </c>
@@ -1867,28 +1900,28 @@
       <c r="I23">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="18">
         <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="15">
         <v>0.12</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="9">
         <f>D24*E24</f>
         <v>0.12</v>
       </c>
@@ -1898,28 +1931,28 @@
       <c r="I24">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="18">
         <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="9">
         <v>0.33</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="9">
         <f>D25*E25</f>
         <v>0.66</v>
       </c>
@@ -1929,28 +1962,28 @@
       <c r="I25">
         <v>0.311</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="18">
         <f t="shared" si="1"/>
         <v>4.665</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="15">
         <v>0.92</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="9">
         <f t="shared" ref="F26" si="3">D26*E26</f>
         <v>0.92</v>
       </c>
@@ -1960,7 +1993,7 @@
       <c r="I26">
         <v>0.68300000000000005</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="18">
         <f t="shared" si="1"/>
         <v>6.83</v>
       </c>
@@ -1969,13 +2002,13 @@
       <c r="A27" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="16">
         <v>1</v>
       </c>
       <c r="E27" s="8">
@@ -1991,7 +2024,7 @@
       <c r="I27">
         <v>0.84599999999999997</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="18">
         <f t="shared" si="1"/>
         <v>8.4599999999999991</v>
       </c>
@@ -2000,10 +2033,10 @@
       <c r="A28" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="17" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="7">
@@ -2023,7 +2056,7 @@
       <c r="I28">
         <v>0.5</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="18">
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
@@ -2054,7 +2087,7 @@
       <c r="I29">
         <v>2.92</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="18">
         <f t="shared" si="1"/>
         <v>14.6</v>
       </c>
@@ -2063,7 +2096,7 @@
       <c r="E31" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="19">
         <f>SUM(F3:F29)</f>
         <v>60.411000000000008</v>
       </c>
@@ -2071,7 +2104,7 @@
         <v>186</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="29">
+      <c r="J31" s="19">
         <f>SUM(J3:J29)</f>
         <v>404.27319999999997</v>
       </c>
@@ -2083,38 +2116,38 @@
       <c r="D33">
         <v>8</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="20">
         <v>11.91</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="18">
         <f>E33*D33</f>
         <v>95.28</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="7">
         <v>1</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="15">
         <v>152.88</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="9">
         <f>D35*E35</f>
         <v>152.88</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="18">
         <f>H35*E35</f>
         <v>152.88</v>
       </c>
@@ -2123,7 +2156,7 @@
       <c r="H37" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="19">
         <f>SUM(J31:J35)</f>
         <v>557.15319999999997</v>
       </c>
